--- a/dbdp_instances/dbgdp_results.xlsx
+++ b/dbdp_instances/dbgdp_results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5340" yWindow="-21105" windowWidth="19200" windowHeight="21105"/>
+    <workbookView xWindow="-5340" yWindow="-21105" windowWidth="19200" windowHeight="21105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="intersec" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1001</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1841">
   <si>
     <t>Instance</t>
   </si>
@@ -5920,11 +5921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView topLeftCell="A682" workbookViewId="0">
+      <selection activeCell="A963" sqref="A1:D1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5944,7 +5945,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6109,7 +6110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6229,7 +6230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -6529,7 +6530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6589,7 +6590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6844,7 +6845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -7039,7 +7040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -7129,7 +7130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -7204,7 +7205,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -7309,7 +7310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -7579,7 +7580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -7609,7 +7610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -7639,7 +7640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7789,7 +7790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -8089,7 +8090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>G_00_02_scr_0017_20</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -9004,7 +9005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -9094,7 +9095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -9139,7 +9140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -9169,7 +9170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -9229,7 +9230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -9469,7 +9470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -9544,7 +9545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -9559,7 +9560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -9574,7 +9575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -9679,7 +9680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -9769,7 +9770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -9889,7 +9890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -9964,7 +9965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -9979,7 +9980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -10099,7 +10100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -10144,7 +10145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -10189,7 +10190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -10249,7 +10250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -10309,7 +10310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -10339,7 +10340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -10354,7 +10355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -10429,7 +10430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -10459,7 +10460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -10504,7 +10505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -10579,7 +10580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -10609,7 +10610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -10669,7 +10670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -10729,7 +10730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -10744,7 +10745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -10759,7 +10760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -10849,7 +10850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -10909,7 +10910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -10924,7 +10925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -10999,7 +11000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -11044,7 +11045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -11089,7 +11090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -11149,7 +11150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -11164,7 +11165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -11944,7 +11945,7 @@
         <v>G_00_03_scr_0017_20</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -11959,7 +11960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -11989,7 +11990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -12049,7 +12050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -12079,7 +12080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -12109,7 +12110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -12169,7 +12170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -12184,7 +12185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -12199,7 +12200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -12229,7 +12230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -12244,7 +12245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -12259,7 +12260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -12274,7 +12275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -12289,7 +12290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -12379,7 +12380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -12394,7 +12395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -12424,7 +12425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -12439,7 +12440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -12454,7 +12455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -12484,7 +12485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -12499,7 +12500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -12514,7 +12515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -12529,7 +12530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -12559,7 +12560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -12574,7 +12575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -12589,7 +12590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -12604,7 +12605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -12619,7 +12620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -12694,7 +12695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -12709,7 +12710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -12724,7 +12725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -12739,7 +12740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -12754,7 +12755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -12769,7 +12770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -12784,7 +12785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -12799,7 +12800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -12829,7 +12830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -12904,7 +12905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -12949,7 +12950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -12964,7 +12965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -12979,7 +12980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -13009,7 +13010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -13054,7 +13055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -13069,7 +13070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -13084,7 +13085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -13114,7 +13115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -13144,7 +13145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -13159,7 +13160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -13174,7 +13175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -13189,7 +13190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -13219,7 +13220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -13279,7 +13280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -13294,7 +13295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -13309,7 +13310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -13324,7 +13325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -13339,7 +13340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -13399,7 +13400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -13429,7 +13430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -13549,7 +13550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -13564,7 +13565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -13579,7 +13580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -13624,7 +13625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -13654,7 +13655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -13714,7 +13715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>519</v>
       </c>
@@ -13729,7 +13730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -13759,7 +13760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -13774,7 +13775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -13789,7 +13790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -13804,7 +13805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>527</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>528</v>
       </c>
@@ -13864,7 +13865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -13879,7 +13880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>531</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>532</v>
       </c>
@@ -13924,7 +13925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>533</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>534</v>
       </c>
@@ -13954,7 +13955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>535</v>
       </c>
@@ -13969,7 +13970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>537</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>538</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>539</v>
       </c>
@@ -14029,7 +14030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>540</v>
       </c>
@@ -14044,7 +14045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>541</v>
       </c>
@@ -14059,7 +14060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>542</v>
       </c>
@@ -14074,7 +14075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>543</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>544</v>
       </c>
@@ -14104,7 +14105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>545</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>546</v>
       </c>
@@ -14134,7 +14135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>547</v>
       </c>
@@ -14149,7 +14150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>548</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>549</v>
       </c>
@@ -14179,7 +14180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>550</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>551</v>
       </c>
@@ -14209,7 +14210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>552</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>553</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>554</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>555</v>
       </c>
@@ -14269,7 +14270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>556</v>
       </c>
@@ -14284,7 +14285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>557</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>558</v>
       </c>
@@ -14314,7 +14315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>559</v>
       </c>
@@ -14329,7 +14330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>560</v>
       </c>
@@ -14344,7 +14345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>561</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>562</v>
       </c>
@@ -14374,7 +14375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>563</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>564</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>565</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>566</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>567</v>
       </c>
@@ -14449,7 +14450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>568</v>
       </c>
@@ -14464,7 +14465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>569</v>
       </c>
@@ -14479,7 +14480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>570</v>
       </c>
@@ -14494,7 +14495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>571</v>
       </c>
@@ -14509,7 +14510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>572</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>573</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>574</v>
       </c>
@@ -14554,7 +14555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>575</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>576</v>
       </c>
@@ -14584,7 +14585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>577</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>578</v>
       </c>
@@ -14614,7 +14615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>579</v>
       </c>
@@ -14629,7 +14630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>580</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>581</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>582</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>583</v>
       </c>
@@ -14689,7 +14690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>584</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>585</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>586</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>587</v>
       </c>
@@ -14749,7 +14750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>588</v>
       </c>
@@ -14764,7 +14765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>589</v>
       </c>
@@ -14779,7 +14780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>590</v>
       </c>
@@ -14794,7 +14795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>591</v>
       </c>
@@ -14809,7 +14810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>592</v>
       </c>
@@ -14824,7 +14825,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>593</v>
       </c>
@@ -14839,7 +14840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>594</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>595</v>
       </c>
@@ -14869,7 +14870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>596</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>597</v>
       </c>
@@ -14899,7 +14900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>598</v>
       </c>
@@ -14914,7 +14915,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>599</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>600</v>
       </c>
@@ -14944,7 +14945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>602</v>
       </c>
@@ -14974,7 +14975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>603</v>
       </c>
@@ -14989,7 +14990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>604</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>605</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>607</v>
       </c>
@@ -15049,7 +15050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>608</v>
       </c>
@@ -15064,7 +15065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>609</v>
       </c>
@@ -15079,7 +15080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>610</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>611</v>
       </c>
@@ -15109,7 +15110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>612</v>
       </c>
@@ -15124,7 +15125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>613</v>
       </c>
@@ -15139,7 +15140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>614</v>
       </c>
@@ -15154,7 +15155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>615</v>
       </c>
@@ -15169,7 +15170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>616</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>617</v>
       </c>
@@ -15199,7 +15200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>618</v>
       </c>
@@ -15214,7 +15215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>619</v>
       </c>
@@ -15229,7 +15230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -15244,7 +15245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>621</v>
       </c>
@@ -15259,7 +15260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>622</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>623</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>624</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>625</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>626</v>
       </c>
@@ -15334,7 +15335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>628</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>629</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>630</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>631</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>632</v>
       </c>
@@ -15424,7 +15425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>633</v>
       </c>
@@ -15439,7 +15440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>634</v>
       </c>
@@ -15454,7 +15455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>635</v>
       </c>
@@ -15469,7 +15470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>636</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>637</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>638</v>
       </c>
@@ -15514,7 +15515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>639</v>
       </c>
@@ -15529,7 +15530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>640</v>
       </c>
@@ -15544,7 +15545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>641</v>
       </c>
@@ -15559,7 +15560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>642</v>
       </c>
@@ -15574,7 +15575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>643</v>
       </c>
@@ -15589,7 +15590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>644</v>
       </c>
@@ -15604,7 +15605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>645</v>
       </c>
@@ -15619,7 +15620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>646</v>
       </c>
@@ -15634,7 +15635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>647</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>648</v>
       </c>
@@ -15664,7 +15665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>649</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>650</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>G_00_04_scr_0017_20</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>701</v>
       </c>
@@ -16459,7 +16460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>702</v>
       </c>
@@ -16474,7 +16475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>703</v>
       </c>
@@ -16489,7 +16490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>704</v>
       </c>
@@ -16504,7 +16505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>705</v>
       </c>
@@ -16519,7 +16520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>706</v>
       </c>
@@ -16534,7 +16535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>707</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>708</v>
       </c>
@@ -16564,7 +16565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>709</v>
       </c>
@@ -16579,7 +16580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>710</v>
       </c>
@@ -16594,7 +16595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -16609,7 +16610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>712</v>
       </c>
@@ -16624,7 +16625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>713</v>
       </c>
@@ -16639,7 +16640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>714</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>715</v>
       </c>
@@ -16669,7 +16670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>716</v>
       </c>
@@ -16684,7 +16685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>717</v>
       </c>
@@ -16699,7 +16700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>718</v>
       </c>
@@ -16714,7 +16715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>719</v>
       </c>
@@ -16729,7 +16730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>720</v>
       </c>
@@ -16744,7 +16745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>721</v>
       </c>
@@ -16759,7 +16760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>722</v>
       </c>
@@ -16774,7 +16775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>724</v>
       </c>
@@ -16804,7 +16805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>725</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>726</v>
       </c>
@@ -16834,7 +16835,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>727</v>
       </c>
@@ -16849,7 +16850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>728</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -16879,7 +16880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -16894,7 +16895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>731</v>
       </c>
@@ -16909,7 +16910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>732</v>
       </c>
@@ -16924,7 +16925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -16939,7 +16940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>734</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>735</v>
       </c>
@@ -16969,7 +16970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>736</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>737</v>
       </c>
@@ -16999,7 +17000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>738</v>
       </c>
@@ -17014,7 +17015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>739</v>
       </c>
@@ -17029,7 +17030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>740</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>741</v>
       </c>
@@ -17059,7 +17060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>742</v>
       </c>
@@ -17074,7 +17075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>743</v>
       </c>
@@ -17089,7 +17090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>744</v>
       </c>
@@ -17104,7 +17105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>745</v>
       </c>
@@ -17119,7 +17120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>746</v>
       </c>
@@ -17134,7 +17135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>747</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>748</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>749</v>
       </c>
@@ -17179,7 +17180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>750</v>
       </c>
@@ -17194,7 +17195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>751</v>
       </c>
@@ -17209,7 +17210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>752</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>753</v>
       </c>
@@ -17239,7 +17240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>754</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>755</v>
       </c>
@@ -17269,7 +17270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>756</v>
       </c>
@@ -17284,7 +17285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>757</v>
       </c>
@@ -17299,7 +17300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>758</v>
       </c>
@@ -17314,7 +17315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>759</v>
       </c>
@@ -17329,7 +17330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>760</v>
       </c>
@@ -17344,7 +17345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>761</v>
       </c>
@@ -17359,7 +17360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>762</v>
       </c>
@@ -17374,7 +17375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>763</v>
       </c>
@@ -17389,7 +17390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>764</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>765</v>
       </c>
@@ -17419,7 +17420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>766</v>
       </c>
@@ -17434,7 +17435,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>767</v>
       </c>
@@ -17449,7 +17450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>768</v>
       </c>
@@ -17464,7 +17465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>769</v>
       </c>
@@ -17479,7 +17480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>770</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>771</v>
       </c>
@@ -17509,7 +17510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>772</v>
       </c>
@@ -17524,7 +17525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>773</v>
       </c>
@@ -17539,7 +17540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>774</v>
       </c>
@@ -17554,7 +17555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>775</v>
       </c>
@@ -17569,7 +17570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>776</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>777</v>
       </c>
@@ -17599,7 +17600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>778</v>
       </c>
@@ -17614,7 +17615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>779</v>
       </c>
@@ -17629,7 +17630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>780</v>
       </c>
@@ -17644,7 +17645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>781</v>
       </c>
@@ -17659,7 +17660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>782</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>783</v>
       </c>
@@ -17689,7 +17690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>784</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>785</v>
       </c>
@@ -17719,7 +17720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>786</v>
       </c>
@@ -17734,7 +17735,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>787</v>
       </c>
@@ -17749,7 +17750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>788</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>789</v>
       </c>
@@ -17779,7 +17780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>790</v>
       </c>
@@ -17794,7 +17795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>791</v>
       </c>
@@ -17809,7 +17810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>792</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>793</v>
       </c>
@@ -17839,7 +17840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>794</v>
       </c>
@@ -17854,7 +17855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>795</v>
       </c>
@@ -17869,7 +17870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>796</v>
       </c>
@@ -17884,7 +17885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>797</v>
       </c>
@@ -17899,7 +17900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>798</v>
       </c>
@@ -17914,7 +17915,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>799</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>800</v>
       </c>
@@ -17944,7 +17945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>801</v>
       </c>
@@ -17959,7 +17960,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>802</v>
       </c>
@@ -17974,7 +17975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>803</v>
       </c>
@@ -17989,7 +17990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>804</v>
       </c>
@@ -18004,7 +18005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>805</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>806</v>
       </c>
@@ -18034,7 +18035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>807</v>
       </c>
@@ -18049,7 +18050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>808</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>809</v>
       </c>
@@ -18079,7 +18080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>810</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>811</v>
       </c>
@@ -18109,7 +18110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>812</v>
       </c>
@@ -18124,7 +18125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>813</v>
       </c>
@@ -18139,7 +18140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>814</v>
       </c>
@@ -18154,7 +18155,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>815</v>
       </c>
@@ -18169,7 +18170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>816</v>
       </c>
@@ -18184,7 +18185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>817</v>
       </c>
@@ -18199,7 +18200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>818</v>
       </c>
@@ -18214,7 +18215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>819</v>
       </c>
@@ -18229,7 +18230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>820</v>
       </c>
@@ -18244,7 +18245,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>821</v>
       </c>
@@ -18259,7 +18260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>822</v>
       </c>
@@ -18274,7 +18275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>823</v>
       </c>
@@ -18289,7 +18290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>824</v>
       </c>
@@ -18304,7 +18305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>825</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>826</v>
       </c>
@@ -18334,7 +18335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>827</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>828</v>
       </c>
@@ -18364,7 +18365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>829</v>
       </c>
@@ -18379,7 +18380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>830</v>
       </c>
@@ -18394,7 +18395,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>831</v>
       </c>
@@ -18409,7 +18410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>832</v>
       </c>
@@ -18424,7 +18425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>833</v>
       </c>
@@ -18439,7 +18440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>834</v>
       </c>
@@ -18454,7 +18455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>835</v>
       </c>
@@ -18469,7 +18470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>836</v>
       </c>
@@ -18484,7 +18485,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>837</v>
       </c>
@@ -18499,7 +18500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>838</v>
       </c>
@@ -18514,7 +18515,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>839</v>
       </c>
@@ -18529,7 +18530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>840</v>
       </c>
@@ -18544,7 +18545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>841</v>
       </c>
@@ -18559,7 +18560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>842</v>
       </c>
@@ -18574,7 +18575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>843</v>
       </c>
@@ -18589,7 +18590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>844</v>
       </c>
@@ -18604,7 +18605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>845</v>
       </c>
@@ -18619,7 +18620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>846</v>
       </c>
@@ -18634,7 +18635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>847</v>
       </c>
@@ -18649,7 +18650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>848</v>
       </c>
@@ -18664,7 +18665,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>849</v>
       </c>
@@ -18679,7 +18680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>850</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>851</v>
       </c>
@@ -18709,7 +18710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>852</v>
       </c>
@@ -18724,7 +18725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>853</v>
       </c>
@@ -18739,7 +18740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>854</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>855</v>
       </c>
@@ -18769,7 +18770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>856</v>
       </c>
@@ -18784,7 +18785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>857</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>858</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>859</v>
       </c>
@@ -18829,7 +18830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>860</v>
       </c>
@@ -18844,7 +18845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>861</v>
       </c>
@@ -18859,7 +18860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>862</v>
       </c>
@@ -18874,7 +18875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>863</v>
       </c>
@@ -18889,7 +18890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>864</v>
       </c>
@@ -18904,7 +18905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>865</v>
       </c>
@@ -18919,7 +18920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>866</v>
       </c>
@@ -18934,7 +18935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>867</v>
       </c>
@@ -18949,7 +18950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>868</v>
       </c>
@@ -18964,7 +18965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>869</v>
       </c>
@@ -18979,7 +18980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>870</v>
       </c>
@@ -18994,7 +18995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>871</v>
       </c>
@@ -19009,7 +19010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>872</v>
       </c>
@@ -19024,7 +19025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>873</v>
       </c>
@@ -19039,7 +19040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>874</v>
       </c>
@@ -19054,7 +19055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>875</v>
       </c>
@@ -19069,7 +19070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>876</v>
       </c>
@@ -19084,7 +19085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>877</v>
       </c>
@@ -19099,7 +19100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>878</v>
       </c>
@@ -19114,7 +19115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>879</v>
       </c>
@@ -19129,7 +19130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>880</v>
       </c>
@@ -19144,7 +19145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>881</v>
       </c>
@@ -19159,7 +19160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>882</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>883</v>
       </c>
@@ -19189,7 +19190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>884</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>885</v>
       </c>
@@ -19219,7 +19220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>886</v>
       </c>
@@ -19234,7 +19235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>887</v>
       </c>
@@ -19249,7 +19250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>888</v>
       </c>
@@ -19264,7 +19265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>889</v>
       </c>
@@ -19279,7 +19280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>890</v>
       </c>
@@ -19294,7 +19295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>891</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>892</v>
       </c>
@@ -19324,7 +19325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>893</v>
       </c>
@@ -19339,7 +19340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>894</v>
       </c>
@@ -19354,7 +19355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>895</v>
       </c>
@@ -19369,7 +19370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>896</v>
       </c>
@@ -19384,7 +19385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>897</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>898</v>
       </c>
@@ -19414,7 +19415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>899</v>
       </c>
@@ -19429,7 +19430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>900</v>
       </c>
@@ -19444,7 +19445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>901</v>
       </c>
@@ -19459,7 +19460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>902</v>
       </c>
@@ -19474,7 +19475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>903</v>
       </c>
@@ -19489,7 +19490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>904</v>
       </c>
@@ -19504,7 +19505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>905</v>
       </c>
@@ -19519,7 +19520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>906</v>
       </c>
@@ -19534,7 +19535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>907</v>
       </c>
@@ -19549,7 +19550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>908</v>
       </c>
@@ -19564,7 +19565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>909</v>
       </c>
@@ -19579,7 +19580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>910</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>911</v>
       </c>
@@ -19609,7 +19610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>912</v>
       </c>
@@ -19624,7 +19625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>913</v>
       </c>
@@ -19639,7 +19640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>914</v>
       </c>
@@ -19654,7 +19655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>915</v>
       </c>
@@ -19669,7 +19670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>916</v>
       </c>
@@ -19684,7 +19685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>917</v>
       </c>
@@ -19699,7 +19700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>918</v>
       </c>
@@ -19714,7 +19715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>919</v>
       </c>
@@ -19729,7 +19730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>920</v>
       </c>
@@ -19744,7 +19745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>921</v>
       </c>
@@ -19759,7 +19760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>922</v>
       </c>
@@ -19774,7 +19775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>923</v>
       </c>
@@ -19789,7 +19790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>924</v>
       </c>
@@ -19804,7 +19805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>925</v>
       </c>
@@ -19819,7 +19820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>926</v>
       </c>
@@ -19834,7 +19835,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>927</v>
       </c>
@@ -19849,7 +19850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>928</v>
       </c>
@@ -19864,7 +19865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>929</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>930</v>
       </c>
@@ -19894,7 +19895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>931</v>
       </c>
@@ -19909,7 +19910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>932</v>
       </c>
@@ -19924,7 +19925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>933</v>
       </c>
@@ -19939,7 +19940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>934</v>
       </c>
@@ -19954,7 +19955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>935</v>
       </c>
@@ -19969,7 +19970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>936</v>
       </c>
@@ -19984,7 +19985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>937</v>
       </c>
@@ -19999,7 +20000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>938</v>
       </c>
@@ -20014,7 +20015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>939</v>
       </c>
@@ -20029,7 +20030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>940</v>
       </c>
@@ -20044,7 +20045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>941</v>
       </c>
@@ -20059,7 +20060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>942</v>
       </c>
@@ -20074,7 +20075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>943</v>
       </c>
@@ -20089,7 +20090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>944</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>945</v>
       </c>
@@ -20119,7 +20120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>946</v>
       </c>
@@ -20134,7 +20135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>947</v>
       </c>
@@ -20149,7 +20150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>948</v>
       </c>
@@ -20164,7 +20165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>949</v>
       </c>
@@ -20179,7 +20180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>950</v>
       </c>
@@ -20419,7 +20420,7 @@
         <v>G_00_05_scr_0017_20</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>966</v>
       </c>
@@ -20434,7 +20435,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>967</v>
       </c>
@@ -20449,7 +20450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>968</v>
       </c>
@@ -20464,7 +20465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>969</v>
       </c>
@@ -20479,7 +20480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>970</v>
       </c>
@@ -20494,7 +20495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>971</v>
       </c>
@@ -20509,7 +20510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>972</v>
       </c>
@@ -20524,7 +20525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>973</v>
       </c>
@@ -20539,7 +20540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>974</v>
       </c>
@@ -20554,7 +20555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>975</v>
       </c>
@@ -20569,7 +20570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>976</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>977</v>
       </c>
@@ -20599,7 +20600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>978</v>
       </c>
@@ -20614,7 +20615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>979</v>
       </c>
@@ -20629,7 +20630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>980</v>
       </c>
@@ -20644,7 +20645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>981</v>
       </c>
@@ -20659,7 +20660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>982</v>
       </c>
@@ -20674,7 +20675,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>983</v>
       </c>
@@ -20689,7 +20690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>984</v>
       </c>
@@ -20704,7 +20705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>985</v>
       </c>
@@ -20719,7 +20720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>986</v>
       </c>
@@ -20734,7 +20735,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>987</v>
       </c>
@@ -20749,7 +20750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>988</v>
       </c>
@@ -20764,7 +20765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>989</v>
       </c>
@@ -20779,7 +20780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>990</v>
       </c>
@@ -20794,7 +20795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>991</v>
       </c>
@@ -20809,7 +20810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>992</v>
       </c>
@@ -20824,7 +20825,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>993</v>
       </c>
@@ -20839,7 +20840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>994</v>
       </c>
@@ -20854,7 +20855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>995</v>
       </c>
@@ -20869,7 +20870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>996</v>
       </c>
@@ -20884,7 +20885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>997</v>
       </c>
@@ -20899,7 +20900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>998</v>
       </c>
@@ -20914,7 +20915,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>999</v>
       </c>
@@ -20929,7 +20930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1000</v>
       </c>
@@ -20945,6 +20946,177 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1001">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="G_00_02_scr_0001_10"/>
+        <filter val="G_00_02_scr_0001_20"/>
+        <filter val="G_00_02_scr_0001_30"/>
+        <filter val="G_00_02_scr_0002_10"/>
+        <filter val="G_00_02_scr_0002_20"/>
+        <filter val="G_00_02_scr_0002_30"/>
+        <filter val="G_00_02_scr_0003_10"/>
+        <filter val="G_00_02_scr_0003_20"/>
+        <filter val="G_00_02_scr_0003_30"/>
+        <filter val="G_00_02_scr_0004_10"/>
+        <filter val="G_00_02_scr_0004_20"/>
+        <filter val="G_00_02_scr_0004_30"/>
+        <filter val="G_00_02_scr_0005_10"/>
+        <filter val="G_00_02_scr_0005_20"/>
+        <filter val="G_00_02_scr_0005_30"/>
+        <filter val="G_00_02_scr_0006_10"/>
+        <filter val="G_00_02_scr_0006_20"/>
+        <filter val="G_00_02_scr_0006_30"/>
+        <filter val="G_00_02_scr_0007_10"/>
+        <filter val="G_00_02_scr_0007_20"/>
+        <filter val="G_00_02_scr_0007_30"/>
+        <filter val="G_00_02_scr_0008_10"/>
+        <filter val="G_00_02_scr_0008_20"/>
+        <filter val="G_00_02_scr_0008_30"/>
+        <filter val="G_00_02_scr_0009_10"/>
+        <filter val="G_00_02_scr_0009_20"/>
+        <filter val="G_00_02_scr_0009_30"/>
+        <filter val="G_00_02_scr_0010_10"/>
+        <filter val="G_00_02_scr_0010_20"/>
+        <filter val="G_00_02_scr_0010_30"/>
+        <filter val="G_00_02_scr_0011_10"/>
+        <filter val="G_00_02_scr_0011_20"/>
+        <filter val="G_00_02_scr_0011_30"/>
+        <filter val="G_00_02_scr_0012_10"/>
+        <filter val="G_00_02_scr_0012_20"/>
+        <filter val="G_00_02_scr_0012_30"/>
+        <filter val="G_00_02_scr_0013_10"/>
+        <filter val="G_00_02_scr_0013_20"/>
+        <filter val="G_00_02_scr_0013_30"/>
+        <filter val="G_00_02_scr_0014_10"/>
+        <filter val="G_00_02_scr_0014_20"/>
+        <filter val="G_00_02_scr_0014_30"/>
+        <filter val="G_00_02_scr_0015_10"/>
+        <filter val="G_00_02_scr_0015_20"/>
+        <filter val="G_00_02_scr_0015_30"/>
+        <filter val="G_00_02_scr_0016_10"/>
+        <filter val="G_00_02_scr_0016_20"/>
+        <filter val="G_00_02_scr_0016_30"/>
+        <filter val="G_00_02_scr_0017_10"/>
+        <filter val="G_00_02_scr_0017_20"/>
+        <filter val="G_00_03_scr_0001_10"/>
+        <filter val="G_00_03_scr_0001_20"/>
+        <filter val="G_00_03_scr_0001_30"/>
+        <filter val="G_00_03_scr_0002_10"/>
+        <filter val="G_00_03_scr_0002_20"/>
+        <filter val="G_00_03_scr_0002_30"/>
+        <filter val="G_00_03_scr_0003_10"/>
+        <filter val="G_00_03_scr_0003_20"/>
+        <filter val="G_00_03_scr_0003_30"/>
+        <filter val="G_00_03_scr_0004_10"/>
+        <filter val="G_00_03_scr_0004_20"/>
+        <filter val="G_00_03_scr_0004_30"/>
+        <filter val="G_00_03_scr_0005_10"/>
+        <filter val="G_00_03_scr_0005_20"/>
+        <filter val="G_00_03_scr_0005_30"/>
+        <filter val="G_00_03_scr_0006_10"/>
+        <filter val="G_00_03_scr_0006_20"/>
+        <filter val="G_00_03_scr_0006_30"/>
+        <filter val="G_00_03_scr_0007_10"/>
+        <filter val="G_00_03_scr_0007_20"/>
+        <filter val="G_00_03_scr_0007_30"/>
+        <filter val="G_00_03_scr_0008_10"/>
+        <filter val="G_00_03_scr_0008_20"/>
+        <filter val="G_00_03_scr_0008_30"/>
+        <filter val="G_00_03_scr_0009_10"/>
+        <filter val="G_00_03_scr_0009_20"/>
+        <filter val="G_00_03_scr_0009_30"/>
+        <filter val="G_00_03_scr_0010_10"/>
+        <filter val="G_00_03_scr_0010_20"/>
+        <filter val="G_00_03_scr_0010_30"/>
+        <filter val="G_00_03_scr_0011_10"/>
+        <filter val="G_00_03_scr_0011_20"/>
+        <filter val="G_00_03_scr_0011_30"/>
+        <filter val="G_00_03_scr_0012_10"/>
+        <filter val="G_00_03_scr_0012_20"/>
+        <filter val="G_00_03_scr_0012_30"/>
+        <filter val="G_00_03_scr_0013_10"/>
+        <filter val="G_00_03_scr_0013_20"/>
+        <filter val="G_00_03_scr_0013_30"/>
+        <filter val="G_00_03_scr_0014_10"/>
+        <filter val="G_00_03_scr_0014_20"/>
+        <filter val="G_00_03_scr_0014_30"/>
+        <filter val="G_00_03_scr_0015_10"/>
+        <filter val="G_00_03_scr_0015_20"/>
+        <filter val="G_00_03_scr_0015_30"/>
+        <filter val="G_00_03_scr_0016_10"/>
+        <filter val="G_00_03_scr_0016_20"/>
+        <filter val="G_00_03_scr_0016_30"/>
+        <filter val="G_00_03_scr_0017_10"/>
+        <filter val="G_00_03_scr_0017_20"/>
+        <filter val="G_00_04_scr_0001_10"/>
+        <filter val="G_00_04_scr_0001_20"/>
+        <filter val="G_00_04_scr_0001_30"/>
+        <filter val="G_00_04_scr_0002_10"/>
+        <filter val="G_00_04_scr_0002_20"/>
+        <filter val="G_00_04_scr_0002_30"/>
+        <filter val="G_00_04_scr_0003_10"/>
+        <filter val="G_00_04_scr_0003_20"/>
+        <filter val="G_00_04_scr_0003_30"/>
+        <filter val="G_00_04_scr_0004_10"/>
+        <filter val="G_00_04_scr_0004_20"/>
+        <filter val="G_00_04_scr_0004_30"/>
+        <filter val="G_00_04_scr_0005_10"/>
+        <filter val="G_00_04_scr_0005_20"/>
+        <filter val="G_00_04_scr_0005_30"/>
+        <filter val="G_00_04_scr_0006_10"/>
+        <filter val="G_00_04_scr_0006_20"/>
+        <filter val="G_00_04_scr_0006_30"/>
+        <filter val="G_00_04_scr_0007_10"/>
+        <filter val="G_00_04_scr_0007_20"/>
+        <filter val="G_00_04_scr_0007_30"/>
+        <filter val="G_00_04_scr_0008_10"/>
+        <filter val="G_00_04_scr_0008_20"/>
+        <filter val="G_00_04_scr_0008_30"/>
+        <filter val="G_00_04_scr_0009_10"/>
+        <filter val="G_00_04_scr_0009_20"/>
+        <filter val="G_00_04_scr_0009_30"/>
+        <filter val="G_00_04_scr_0010_10"/>
+        <filter val="G_00_04_scr_0010_20"/>
+        <filter val="G_00_04_scr_0010_30"/>
+        <filter val="G_00_04_scr_0011_10"/>
+        <filter val="G_00_04_scr_0011_20"/>
+        <filter val="G_00_04_scr_0011_30"/>
+        <filter val="G_00_04_scr_0012_10"/>
+        <filter val="G_00_04_scr_0012_20"/>
+        <filter val="G_00_04_scr_0012_30"/>
+        <filter val="G_00_04_scr_0013_10"/>
+        <filter val="G_00_04_scr_0013_20"/>
+        <filter val="G_00_04_scr_0013_30"/>
+        <filter val="G_00_04_scr_0014_10"/>
+        <filter val="G_00_04_scr_0014_20"/>
+        <filter val="G_00_04_scr_0014_30"/>
+        <filter val="G_00_04_scr_0015_10"/>
+        <filter val="G_00_04_scr_0015_20"/>
+        <filter val="G_00_04_scr_0015_30"/>
+        <filter val="G_00_04_scr_0016_10"/>
+        <filter val="G_00_04_scr_0016_20"/>
+        <filter val="G_00_04_scr_0016_30"/>
+        <filter val="G_00_04_scr_0017_10"/>
+        <filter val="G_00_04_scr_0017_20"/>
+        <filter val="G_00_05_scr_0012_30"/>
+        <filter val="G_00_05_scr_0013_10"/>
+        <filter val="G_00_05_scr_0013_20"/>
+        <filter val="G_00_05_scr_0013_30"/>
+        <filter val="G_00_05_scr_0014_10"/>
+        <filter val="G_00_05_scr_0014_20"/>
+        <filter val="G_00_05_scr_0014_30"/>
+        <filter val="G_00_05_scr_0015_10"/>
+        <filter val="G_00_05_scr_0015_20"/>
+        <filter val="G_00_05_scr_0015_30"/>
+        <filter val="G_00_05_scr_0016_10"/>
+        <filter val="G_00_05_scr_0016_20"/>
+        <filter val="G_00_05_scr_0016_30"/>
+        <filter val="G_00_05_scr_0017_10"/>
+        <filter val="G_00_05_scr_0017_20"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32981,4 +33153,1845 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>469</v>
+      </c>
+      <c r="C2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>432</v>
+      </c>
+      <c r="C3">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4">
+        <v>355</v>
+      </c>
+      <c r="C4">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5">
+        <v>451</v>
+      </c>
+      <c r="C5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <v>485</v>
+      </c>
+      <c r="C6">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>390</v>
+      </c>
+      <c r="C7">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8">
+        <v>473</v>
+      </c>
+      <c r="C8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9">
+        <v>376</v>
+      </c>
+      <c r="C9">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>306</v>
+      </c>
+      <c r="C10">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>491</v>
+      </c>
+      <c r="C11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12">
+        <v>341</v>
+      </c>
+      <c r="C12">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13">
+        <v>324</v>
+      </c>
+      <c r="C13">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>429</v>
+      </c>
+      <c r="C14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15">
+        <v>314</v>
+      </c>
+      <c r="C15">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16">
+        <v>335</v>
+      </c>
+      <c r="C16">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17">
+        <v>463</v>
+      </c>
+      <c r="C17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18">
+        <v>401</v>
+      </c>
+      <c r="C18">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>339</v>
+      </c>
+      <c r="C19">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20">
+        <v>447</v>
+      </c>
+      <c r="C20">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21">
+        <v>399</v>
+      </c>
+      <c r="C21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22">
+        <v>270</v>
+      </c>
+      <c r="C22">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23">
+        <v>386</v>
+      </c>
+      <c r="C23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24">
+        <v>334</v>
+      </c>
+      <c r="C24">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25">
+        <v>302</v>
+      </c>
+      <c r="C25">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26">
+        <v>447</v>
+      </c>
+      <c r="C26">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27">
+        <v>362</v>
+      </c>
+      <c r="C27">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>304</v>
+      </c>
+      <c r="C28">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>443</v>
+      </c>
+      <c r="C29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30">
+        <v>445</v>
+      </c>
+      <c r="C30">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31">
+        <v>351</v>
+      </c>
+      <c r="C31">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32">
+        <v>536</v>
+      </c>
+      <c r="C32">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33">
+        <v>492</v>
+      </c>
+      <c r="C33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34">
+        <v>294</v>
+      </c>
+      <c r="C34">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35">
+        <v>446</v>
+      </c>
+      <c r="C35">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36">
+        <v>353</v>
+      </c>
+      <c r="C36">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37">
+        <v>314</v>
+      </c>
+      <c r="C37">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38">
+        <v>564</v>
+      </c>
+      <c r="C38">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39">
+        <v>434</v>
+      </c>
+      <c r="C39">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40">
+        <v>293</v>
+      </c>
+      <c r="C40">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41">
+        <v>495</v>
+      </c>
+      <c r="C41">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42">
+        <v>319</v>
+      </c>
+      <c r="C42">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43">
+        <v>328</v>
+      </c>
+      <c r="C43">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44">
+        <v>467</v>
+      </c>
+      <c r="C44">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45">
+        <v>348</v>
+      </c>
+      <c r="C45">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46">
+        <v>315</v>
+      </c>
+      <c r="C46">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47">
+        <v>488</v>
+      </c>
+      <c r="C47">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48">
+        <v>428</v>
+      </c>
+      <c r="C48">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49">
+        <v>396</v>
+      </c>
+      <c r="C49">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50">
+        <v>433</v>
+      </c>
+      <c r="C50">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51">
+        <v>377</v>
+      </c>
+      <c r="C51">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52">
+        <v>2528</v>
+      </c>
+      <c r="C52">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B53">
+        <v>1995</v>
+      </c>
+      <c r="C53">
+        <v>2.8340000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54">
+        <v>1840</v>
+      </c>
+      <c r="C54">
+        <v>4.468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55">
+        <v>2427</v>
+      </c>
+      <c r="C55">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56">
+        <v>1908</v>
+      </c>
+      <c r="C56">
+        <v>2.5179999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B57">
+        <v>1726</v>
+      </c>
+      <c r="C57">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>357</v>
+      </c>
+      <c r="B58">
+        <v>2364</v>
+      </c>
+      <c r="C58">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59">
+        <v>2058</v>
+      </c>
+      <c r="C59">
+        <v>2.6019999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60">
+        <v>1847</v>
+      </c>
+      <c r="C60">
+        <v>4.2830000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61">
+        <v>2288</v>
+      </c>
+      <c r="C61">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B62">
+        <v>2190</v>
+      </c>
+      <c r="C62">
+        <v>2.5529999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63">
+        <v>1895</v>
+      </c>
+      <c r="C63">
+        <v>4.5650000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B64">
+        <v>2495</v>
+      </c>
+      <c r="C64">
+        <v>1.2649999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65">
+        <v>2105</v>
+      </c>
+      <c r="C65">
+        <v>2.5390000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66">
+        <v>1914</v>
+      </c>
+      <c r="C66">
+        <v>4.2380000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67">
+        <v>2449</v>
+      </c>
+      <c r="C67">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>367</v>
+      </c>
+      <c r="B68">
+        <v>2027</v>
+      </c>
+      <c r="C68">
+        <v>2.3959999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69">
+        <v>1954</v>
+      </c>
+      <c r="C69">
+        <v>4.2720000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70">
+        <v>2316</v>
+      </c>
+      <c r="C70">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>370</v>
+      </c>
+      <c r="B71">
+        <v>2131</v>
+      </c>
+      <c r="C71">
+        <v>2.5489999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>371</v>
+      </c>
+      <c r="B72">
+        <v>1822</v>
+      </c>
+      <c r="C72">
+        <v>4.4009999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73">
+        <v>2484</v>
+      </c>
+      <c r="C73">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74">
+        <v>2156</v>
+      </c>
+      <c r="C74">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>374</v>
+      </c>
+      <c r="B75">
+        <v>1753</v>
+      </c>
+      <c r="C75">
+        <v>4.2530000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>375</v>
+      </c>
+      <c r="B76">
+        <v>2202</v>
+      </c>
+      <c r="C76">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>376</v>
+      </c>
+      <c r="B77">
+        <v>1850</v>
+      </c>
+      <c r="C77">
+        <v>2.6890000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>377</v>
+      </c>
+      <c r="B78">
+        <v>1657</v>
+      </c>
+      <c r="C78">
+        <v>4.7249999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>378</v>
+      </c>
+      <c r="B79">
+        <v>2394</v>
+      </c>
+      <c r="C79">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>379</v>
+      </c>
+      <c r="B80">
+        <v>1798</v>
+      </c>
+      <c r="C80">
+        <v>2.452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>380</v>
+      </c>
+      <c r="B81">
+        <v>1700</v>
+      </c>
+      <c r="C81">
+        <v>4.4720000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>381</v>
+      </c>
+      <c r="B82">
+        <v>2269</v>
+      </c>
+      <c r="C82">
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B83">
+        <v>1976</v>
+      </c>
+      <c r="C83">
+        <v>2.5960000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>383</v>
+      </c>
+      <c r="B84">
+        <v>1743</v>
+      </c>
+      <c r="C84">
+        <v>4.5259999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85">
+        <v>2262</v>
+      </c>
+      <c r="C85">
+        <v>2.0030000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>385</v>
+      </c>
+      <c r="B86">
+        <v>1997</v>
+      </c>
+      <c r="C86">
+        <v>3.1320000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87">
+        <v>1806</v>
+      </c>
+      <c r="C87">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>387</v>
+      </c>
+      <c r="B88">
+        <v>2371</v>
+      </c>
+      <c r="C88">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>388</v>
+      </c>
+      <c r="B89">
+        <v>2150</v>
+      </c>
+      <c r="C89">
+        <v>2.4129999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>389</v>
+      </c>
+      <c r="B90">
+        <v>1971</v>
+      </c>
+      <c r="C90">
+        <v>4.1619999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>390</v>
+      </c>
+      <c r="B91">
+        <v>2384</v>
+      </c>
+      <c r="C91">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>391</v>
+      </c>
+      <c r="B92">
+        <v>1932</v>
+      </c>
+      <c r="C92">
+        <v>2.484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>392</v>
+      </c>
+      <c r="B93">
+        <v>1391</v>
+      </c>
+      <c r="C93">
+        <v>4.3250000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>393</v>
+      </c>
+      <c r="B94">
+        <v>2221</v>
+      </c>
+      <c r="C94">
+        <v>1.0840000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>394</v>
+      </c>
+      <c r="B95">
+        <v>1861</v>
+      </c>
+      <c r="C95">
+        <v>2.488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>395</v>
+      </c>
+      <c r="B96">
+        <v>1516</v>
+      </c>
+      <c r="C96">
+        <v>5.0490000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>396</v>
+      </c>
+      <c r="B97">
+        <v>2202</v>
+      </c>
+      <c r="C97">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>397</v>
+      </c>
+      <c r="B98">
+        <v>1818</v>
+      </c>
+      <c r="C98">
+        <v>2.395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>398</v>
+      </c>
+      <c r="B99">
+        <v>1477</v>
+      </c>
+      <c r="C99">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>399</v>
+      </c>
+      <c r="B100">
+        <v>2388</v>
+      </c>
+      <c r="C100">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>400</v>
+      </c>
+      <c r="B101">
+        <v>1987</v>
+      </c>
+      <c r="C101">
+        <v>2.444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>651</v>
+      </c>
+      <c r="B102">
+        <v>10878</v>
+      </c>
+      <c r="C102">
+        <v>21.960999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>652</v>
+      </c>
+      <c r="B103">
+        <v>10020</v>
+      </c>
+      <c r="C103">
+        <v>65.478999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>653</v>
+      </c>
+      <c r="B104">
+        <v>8178</v>
+      </c>
+      <c r="C104">
+        <v>119.944</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>654</v>
+      </c>
+      <c r="B105">
+        <v>10509</v>
+      </c>
+      <c r="C105">
+        <v>34.423000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>655</v>
+      </c>
+      <c r="B106">
+        <v>9090</v>
+      </c>
+      <c r="C106">
+        <v>69.049000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>656</v>
+      </c>
+      <c r="B107">
+        <v>8151</v>
+      </c>
+      <c r="C107">
+        <v>128.048</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>657</v>
+      </c>
+      <c r="B108">
+        <v>11320</v>
+      </c>
+      <c r="C108">
+        <v>22.609000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>658</v>
+      </c>
+      <c r="B109">
+        <v>9892</v>
+      </c>
+      <c r="C109">
+        <v>67.489999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>659</v>
+      </c>
+      <c r="B110">
+        <v>8606</v>
+      </c>
+      <c r="C110">
+        <v>123.494</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>660</v>
+      </c>
+      <c r="B111">
+        <v>10660</v>
+      </c>
+      <c r="C111">
+        <v>28.146000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>661</v>
+      </c>
+      <c r="B112">
+        <v>9416</v>
+      </c>
+      <c r="C112">
+        <v>69.647999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>662</v>
+      </c>
+      <c r="B113">
+        <v>8353</v>
+      </c>
+      <c r="C113">
+        <v>126.011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>663</v>
+      </c>
+      <c r="B114">
+        <v>11774</v>
+      </c>
+      <c r="C114">
+        <v>22.044</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>664</v>
+      </c>
+      <c r="B115">
+        <v>10340</v>
+      </c>
+      <c r="C115">
+        <v>66.492000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>665</v>
+      </c>
+      <c r="B116">
+        <v>9026</v>
+      </c>
+      <c r="C116">
+        <v>120.813</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>666</v>
+      </c>
+      <c r="B117">
+        <v>11112</v>
+      </c>
+      <c r="C117">
+        <v>24.928999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>667</v>
+      </c>
+      <c r="B118">
+        <v>10192</v>
+      </c>
+      <c r="C118">
+        <v>66.822999999999993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>668</v>
+      </c>
+      <c r="B119">
+        <v>8654</v>
+      </c>
+      <c r="C119">
+        <v>116.42700000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>669</v>
+      </c>
+      <c r="B120">
+        <v>10787</v>
+      </c>
+      <c r="C120">
+        <v>22.571999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>670</v>
+      </c>
+      <c r="B121">
+        <v>9954</v>
+      </c>
+      <c r="C121">
+        <v>65.760000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>671</v>
+      </c>
+      <c r="B122">
+        <v>8153</v>
+      </c>
+      <c r="C122">
+        <v>121.709</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>672</v>
+      </c>
+      <c r="B123">
+        <v>11170</v>
+      </c>
+      <c r="C123">
+        <v>21.972000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>673</v>
+      </c>
+      <c r="B124">
+        <v>9432</v>
+      </c>
+      <c r="C124">
+        <v>65.744</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>674</v>
+      </c>
+      <c r="B125">
+        <v>8602</v>
+      </c>
+      <c r="C125">
+        <v>119.761</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>675</v>
+      </c>
+      <c r="B126">
+        <v>11416</v>
+      </c>
+      <c r="C126">
+        <v>22.501999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>676</v>
+      </c>
+      <c r="B127">
+        <v>10055</v>
+      </c>
+      <c r="C127">
+        <v>64.295000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>677</v>
+      </c>
+      <c r="B128">
+        <v>8884</v>
+      </c>
+      <c r="C128">
+        <v>118.742</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>678</v>
+      </c>
+      <c r="B129">
+        <v>11230</v>
+      </c>
+      <c r="C129">
+        <v>24.260999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>679</v>
+      </c>
+      <c r="B130">
+        <v>9817</v>
+      </c>
+      <c r="C130">
+        <v>66.787999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>680</v>
+      </c>
+      <c r="B131">
+        <v>8576</v>
+      </c>
+      <c r="C131">
+        <v>124.142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>681</v>
+      </c>
+      <c r="B132">
+        <v>11595</v>
+      </c>
+      <c r="C132">
+        <v>25.747</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>682</v>
+      </c>
+      <c r="B133">
+        <v>9501</v>
+      </c>
+      <c r="C133">
+        <v>65.558999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>683</v>
+      </c>
+      <c r="B134">
+        <v>8414</v>
+      </c>
+      <c r="C134">
+        <v>121.274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>684</v>
+      </c>
+      <c r="B135">
+        <v>10778</v>
+      </c>
+      <c r="C135">
+        <v>26.785</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>685</v>
+      </c>
+      <c r="B136">
+        <v>9875</v>
+      </c>
+      <c r="C136">
+        <v>69.582999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>686</v>
+      </c>
+      <c r="B137">
+        <v>8776</v>
+      </c>
+      <c r="C137">
+        <v>119.268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>687</v>
+      </c>
+      <c r="B138">
+        <v>9966</v>
+      </c>
+      <c r="C138">
+        <v>36.328000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>688</v>
+      </c>
+      <c r="B139">
+        <v>9273</v>
+      </c>
+      <c r="C139">
+        <v>76.677999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>689</v>
+      </c>
+      <c r="B140">
+        <v>8227</v>
+      </c>
+      <c r="C140">
+        <v>128.066</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>690</v>
+      </c>
+      <c r="B141">
+        <v>10500</v>
+      </c>
+      <c r="C141">
+        <v>25.553999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>691</v>
+      </c>
+      <c r="B142">
+        <v>9356</v>
+      </c>
+      <c r="C142">
+        <v>85.093999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>692</v>
+      </c>
+      <c r="B143">
+        <v>8424</v>
+      </c>
+      <c r="C143">
+        <v>137.06899999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>693</v>
+      </c>
+      <c r="B144">
+        <v>11740</v>
+      </c>
+      <c r="C144">
+        <v>29.116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>694</v>
+      </c>
+      <c r="B145">
+        <v>10062</v>
+      </c>
+      <c r="C145">
+        <v>69.400999999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>695</v>
+      </c>
+      <c r="B146">
+        <v>8921</v>
+      </c>
+      <c r="C146">
+        <v>124.533</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>696</v>
+      </c>
+      <c r="B147">
+        <v>11159</v>
+      </c>
+      <c r="C147">
+        <v>21.571000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>697</v>
+      </c>
+      <c r="B148">
+        <v>10174</v>
+      </c>
+      <c r="C148">
+        <v>67.028000000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>698</v>
+      </c>
+      <c r="B149">
+        <v>8618</v>
+      </c>
+      <c r="C149">
+        <v>123.52200000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>699</v>
+      </c>
+      <c r="B150">
+        <v>10780</v>
+      </c>
+      <c r="C150">
+        <v>25.433</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>700</v>
+      </c>
+      <c r="B151">
+        <v>9450</v>
+      </c>
+      <c r="C151">
+        <v>72.302000000000007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>951</v>
+      </c>
+      <c r="B152">
+        <v>36993</v>
+      </c>
+      <c r="C152">
+        <v>729.06399999999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>952</v>
+      </c>
+      <c r="B153">
+        <v>48250</v>
+      </c>
+      <c r="C153">
+        <v>531.42600000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>953</v>
+      </c>
+      <c r="B154">
+        <v>44906</v>
+      </c>
+      <c r="C154">
+        <v>567.77599999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>954</v>
+      </c>
+      <c r="B155">
+        <v>40095</v>
+      </c>
+      <c r="C155">
+        <v>706.96600000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>955</v>
+      </c>
+      <c r="B156">
+        <v>47587</v>
+      </c>
+      <c r="C156">
+        <v>524.49699999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>956</v>
+      </c>
+      <c r="B157">
+        <v>41740</v>
+      </c>
+      <c r="C157">
+        <v>578.29300000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>957</v>
+      </c>
+      <c r="B158">
+        <v>36446</v>
+      </c>
+      <c r="C158">
+        <v>710.91499999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>958</v>
+      </c>
+      <c r="B159">
+        <v>45803</v>
+      </c>
+      <c r="C159">
+        <v>534.58799999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>959</v>
+      </c>
+      <c r="B160">
+        <v>40142</v>
+      </c>
+      <c r="C160">
+        <v>582.47299999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>960</v>
+      </c>
+      <c r="B161">
+        <v>36948</v>
+      </c>
+      <c r="C161">
+        <v>679.92700000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>961</v>
+      </c>
+      <c r="B162">
+        <v>44822</v>
+      </c>
+      <c r="C162">
+        <v>512.09299999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>962</v>
+      </c>
+      <c r="B163">
+        <v>42348</v>
+      </c>
+      <c r="C163">
+        <v>575.57000000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>963</v>
+      </c>
+      <c r="B164">
+        <v>37349</v>
+      </c>
+      <c r="C164">
+        <v>685.11199999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>964</v>
+      </c>
+      <c r="B165">
+        <v>45802</v>
+      </c>
+      <c r="C165">
+        <v>532.68600000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>965</v>
+      </c>
+      <c r="B166">
+        <v>40456</v>
+      </c>
+      <c r="C166">
+        <v>581.94500000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>